--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Guyana/Pandémie_de_Covid-19_au_Guyana.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Guyana/Pandémie_de_Covid-19_au_Guyana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Guyana</t>
+          <t>Pandémie_de_Covid-19_au_Guyana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 au Guyana démarre officiellement le 11 mars 2020. À la date du 25 octobre 2022, le bilan est de 1 281 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Guyana</t>
+          <t>Pandémie_de_Covid-19_au_Guyana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier cas de Covid-19 au Guyana et de décès dû à cette maladie est signalé le 11 mars 2020. Il s'agit d'une femme d'une cinquantaine d'années, revenue quelques jours avant de New York, et qui souffrait également de diabète et d'hypotension artérielle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas de Covid-19 au Guyana et de décès dû à cette maladie est signalé le 11 mars 2020. Il s'agit d'une femme d'une cinquantaine d'années, revenue quelques jours avant de New York, et qui souffrait également de diabète et d'hypotension artérielle.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Guyana</t>
+          <t>Pandémie_de_Covid-19_au_Guyana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
